--- a/Simulations/Results/Partial Results/berthing_60s_new_part2/berthing_60s_new_part2.xlsx
+++ b/Simulations/Results/Partial Results/berthing_60s_new_part2/berthing_60s_new_part2.xlsx
@@ -13,7 +13,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dr (m)</t>
+  </si>
+  <si>
+    <t>dtheta (m)</t>
+  </si>
+  <si>
+    <t>dh (m)</t>
+  </si>
+  <si>
+    <t>dv_r (m/s)</t>
+  </si>
+  <si>
+    <t>dv_theta (m/s)</t>
+  </si>
+  <si>
+    <t>dv_h (m/s)</t>
+  </si>
+  <si>
+    <t>delta_rho (m)</t>
+  </si>
+  <si>
+    <t>delta_rhodot (m/s)</t>
+  </si>
+  <si>
+    <t>omega_ef (rad/s)</t>
+  </si>
+  <si>
+    <t>angle_e (deg)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dr (m)</t>
+  </si>
+  <si>
+    <t>dtheta (m)</t>
+  </si>
+  <si>
+    <t>dh (m)</t>
+  </si>
+  <si>
+    <t>dv_r (m/s)</t>
+  </si>
+  <si>
+    <t>dv_theta (m/s)</t>
+  </si>
+  <si>
+    <t>dv_h (m/s)</t>
+  </si>
+  <si>
+    <t>delta_rho (m)</t>
+  </si>
+  <si>
+    <t>delta_rhodot (m/s)</t>
+  </si>
+  <si>
+    <t>omega_ef (rad/s)</t>
+  </si>
+  <si>
+    <t>angle_e (deg)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dr (m)</t>
+  </si>
+  <si>
+    <t>dtheta (m)</t>
+  </si>
+  <si>
+    <t>dh (m)</t>
+  </si>
+  <si>
+    <t>dv_r (m/s)</t>
+  </si>
+  <si>
+    <t>dv_theta (m/s)</t>
+  </si>
+  <si>
+    <t>dv_h (m/s)</t>
+  </si>
+  <si>
+    <t>delta_rho (m)</t>
+  </si>
+  <si>
+    <t>delta_rhodot (m/s)</t>
+  </si>
+  <si>
+    <t>omega_ef (rad/s)</t>
+  </si>
+  <si>
+    <t>angle_e (deg)</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -149,40 +257,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
